--- a/src/test/resources/files/data_one_row.xlsx
+++ b/src/test/resources/files/data_one_row.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243-admin/IdeaProjects/bi-api/src/test/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24992BAC-80DD-BD49-BA43-7D0B2AA7C3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94F33DE-2E7D-364F-87D9-AFB5376333C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29440" windowHeight="15080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>Column</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Powdery Mildew Severity</t>
+  </si>
+  <si>
+    <t>PM_Leaf</t>
+  </si>
+  <si>
+    <t>Powdery Mildew severity, leaf</t>
   </si>
 </sst>
 </file>
@@ -819,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -902,7 +908,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>62</v>
@@ -929,7 +935,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>32</v>

--- a/src/test/resources/files/data_one_row.xlsx
+++ b/src/test/resources/files/data_one_row.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243-admin/IdeaProjects/bi-api/src/test/resources/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drp227/source/bi-api/src/test/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94F33DE-2E7D-364F-87D9-AFB5376333C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A65DB0-AF27-2A4E-B2EB-6C9B4F2EE341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29440" windowHeight="15080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37460" yWindow="-3660" windowWidth="29440" windowHeight="15080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Column</t>
   </si>
@@ -184,12 +184,6 @@
     <t>* Required field</t>
   </si>
   <si>
-    <t>Ontology term name</t>
-  </si>
-  <si>
-    <t>Trait description</t>
-  </si>
-  <si>
     <t>Trait entity</t>
   </si>
   <si>
@@ -205,18 +199,12 @@
     <t>Method class</t>
   </si>
   <si>
-    <t>Scale name</t>
-  </si>
-  <si>
     <t>Scale class</t>
   </si>
   <si>
     <t>Tags</t>
   </si>
   <si>
-    <t xml:space="preserve">PMSevLeaf; PM_LEAF_P4 </t>
-  </si>
-  <si>
     <t>leaf</t>
   </si>
   <si>
@@ -233,6 +221,18 @@
   </si>
   <si>
     <t>Powdery Mildew severity, leaf</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Units</t>
   </si>
 </sst>
 </file>
@@ -823,146 +823,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="62.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" customWidth="1"/>
-    <col min="16" max="17" width="16.5" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" customWidth="1"/>
+    <col min="15" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="N2" s="2">
+        <v>2</v>
       </c>
       <c r="O2" s="2">
         <v>2</v>
       </c>
       <c r="P2" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="2">
         <v>9999</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T2" t="s">
-        <v>66</v>
+      <c r="S2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/files/data_one_row.xlsx
+++ b/src/test/resources/files/data_one_row.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drp227/source/bi-api/src/test/resources/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243/IdeaProjects/bi-api/src/test/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A65DB0-AF27-2A4E-B2EB-6C9B4F2EE341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9746B91-5B03-B34E-B872-64E8E742550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37460" yWindow="-3660" windowWidth="29440" windowHeight="15080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="Template" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Column</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>Term Type</t>
+  </si>
+  <si>
+    <t>germplasm passport</t>
   </si>
 </sst>
 </file>
@@ -274,10 +280,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -620,10 +625,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -631,7 +636,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -642,10 +647,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -653,10 +658,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -664,10 +669,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
@@ -675,7 +680,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -686,7 +691,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
@@ -697,7 +702,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
@@ -708,7 +713,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
@@ -719,10 +724,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
@@ -730,18 +735,18 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">
@@ -752,7 +757,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
@@ -763,40 +768,40 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>9999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
       <c r="B18" t="s">
@@ -823,10 +828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -843,7 +848,7 @@
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -901,61 +906,67 @@
       <c r="S1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="T1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>9999</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>50</v>
       </c>
       <c r="S2" t="s">
         <v>62</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/files/data_one_row.xlsx
+++ b/src/test/resources/files/data_one_row.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243/IdeaProjects/bi-api/src/test/resources/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlm483/Source/bi-api/src/test/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9746B91-5B03-B34E-B872-64E8E742550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0ABAB5-7E07-4A44-B9CD-ABF8B971F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="500" windowWidth="35840" windowHeight="20600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>Column</t>
   </si>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -944,9 +944,6 @@
       <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
       <c r="M2" t="s">
         <v>41</v>
       </c>
